--- a/biology/Zoologie/Parc_naturel_de_l'Albufera/Parc_naturel_de_l'Albufera.xlsx
+++ b/biology/Zoologie/Parc_naturel_de_l'Albufera/Parc_naturel_de_l'Albufera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_l%27Albufera</t>
+          <t>Parc_naturel_de_l'Albufera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel de l'Albufera est un site naturel d'Espagne situé à dix kilomètres au sud de Valence, dans l'horta, autour de l'albufera (de l'arabe  البحيرة al-buhayra, la petite mer), une lagune d'eau douce en bordure de la Méditerranée, avec laquelle elle communique. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_l%27Albufera</t>
+          <t>Parc_naturel_de_l'Albufera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albufera formait une baie, dans l'Antiquité, mais elle a été progressivement colmatée par les sédiments des fleuves Júcar et Turia, qui la séparèrent de la mer à l'époque romaine et est devenue un lac. La superficie du lac était alors d'environ trente mille hectares, mais, au fil des ans, cette surface s'est restreinte par la création de zones destinées, en particulier, à la riziculture.
-Le lac s'étend désormais sur 2 100 hectares, auquel s'ajoutent 14 100 hectares de zones inondables consacrées à la culture du riz, plus la bande de littoral qui la sépare de la mer. Au total, cette zone de 21 120 hectares abrite une grande variété d'espèces aquatiques, animales et végétales, ainsi qu'une multitude d'oiseaux. Le site est désigné site Ramsar depuis le 5 décembre 1989[1].
+Le lac s'étend désormais sur 2 100 hectares, auquel s'ajoutent 14 100 hectares de zones inondables consacrées à la culture du riz, plus la bande de littoral qui la sépare de la mer. Au total, cette zone de 21 120 hectares abrite une grande variété d'espèces aquatiques, animales et végétales, ainsi qu'une multitude d'oiseaux. Le site est désigné site Ramsar depuis le 5 décembre 1989.
 Le parc naturel de l'Albufera a comme particularité d'englober le village d'"El Palmar", auquel on n'a pu longtemps accéder qu'en barque, jusqu'à ce que des ponts soient finalement construits dans les années 1960.
 			Vue satellite
 			Paysan en train de semer (1968)
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_l%27Albufera</t>
+          <t>Parc_naturel_de_l'Albufera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Événement historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maréchal d'Empire Louis Gabriel Suchet battit près de cette lagune, et sous les murs de Valence, le général Blake, qui capitula le 9 janvier 1812. Cette victoire lui valut le titre de duc d'Albufera.
 </t>
